--- a/candidatos/candidatos.xlsx
+++ b/candidatos/candidatos.xlsx
@@ -1,38 +1,353 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030075675\Documents\R Projects\provas_estagio\candidatos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>Maria Eduarda Rodrigues Ferreira do Couto/BANESTES</t>
+  </si>
+  <si>
+    <t>adeilson.neres@outlook.com</t>
+  </si>
+  <si>
+    <t>afonsokaiak@gmail.com</t>
+  </si>
+  <si>
+    <t>Afonso Dantas De Sousa</t>
+  </si>
+  <si>
+    <t>Anna Sophia Freire Purcinell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márcia Quellem Nascimento </t>
+  </si>
+  <si>
+    <t>Adeilson Rodrigues Neres</t>
+  </si>
+  <si>
+    <t>Alexandre de Jesus Motta</t>
+  </si>
+  <si>
+    <t>Andre Borges</t>
+  </si>
+  <si>
+    <t>Yuri Jordaim</t>
+  </si>
+  <si>
+    <t>Willian Nunes Coutinho</t>
+  </si>
+  <si>
+    <t>Thamyres Oliveira</t>
+  </si>
+  <si>
+    <t>Thamiris Moreira</t>
+  </si>
+  <si>
+    <t>Stella Gomes</t>
+  </si>
+  <si>
+    <t>alexandreifes19@gmail.com</t>
+  </si>
+  <si>
+    <t>andrealb02@gmail.com</t>
+  </si>
+  <si>
+    <t>andyaracristyen@gmail.com</t>
+  </si>
+  <si>
+    <t>anna.purcinelli@edu.ufes.br</t>
+  </si>
+  <si>
+    <t>dejesusbrayan65@gmail.com</t>
+  </si>
+  <si>
+    <t>bruna.san.faria@gmail.com</t>
+  </si>
+  <si>
+    <t>caiomazolini02@hotmail.com</t>
+  </si>
+  <si>
+    <t>camilarieiv@gmail.com</t>
+  </si>
+  <si>
+    <t>yurijordaim@icloud.com</t>
+  </si>
+  <si>
+    <t>willian_abc@hotmail.com</t>
+  </si>
+  <si>
+    <t>thamyresoli80@gmail.com</t>
+  </si>
+  <si>
+    <t>thamirismais@gmail.com</t>
+  </si>
+  <si>
+    <t>stelladgomes@gmail.com</t>
+  </si>
+  <si>
+    <t>sa.esther77@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigo.acastro@hotmail.com</t>
+  </si>
+  <si>
+    <t>rochellyh15@gmail.com</t>
+  </si>
+  <si>
+    <t>paulogiovane6dimension@gmail.com</t>
+  </si>
+  <si>
+    <t>patrikichagas@gmail.com</t>
+  </si>
+  <si>
+    <t>nicolibessert123@gmail.com</t>
+  </si>
+  <si>
+    <t>nckandrey20@gmail.com</t>
+  </si>
+  <si>
+    <t>matheus.motta.2203@gmail.com</t>
+  </si>
+  <si>
+    <t>mariapaula.mc12@gmail.com</t>
+  </si>
+  <si>
+    <t>quellemsantos@hotmail.com</t>
+  </si>
+  <si>
+    <t>marcelly.oliveira031@gmail.com</t>
+  </si>
+  <si>
+    <t>l.gustavocypreste@gmail.com</t>
+  </si>
+  <si>
+    <t>luizcarlos.sj6@gmail.com</t>
+  </si>
+  <si>
+    <t>lucaslimalopes15@gmail.com</t>
+  </si>
+  <si>
+    <t>lugilesilva@gmail.com</t>
+  </si>
+  <si>
+    <t>lucascssilva@hotmail.com</t>
+  </si>
+  <si>
+    <t>aluucas@gmail.com</t>
+  </si>
+  <si>
+    <t>liandrabandeira@hotmail.com</t>
+  </si>
+  <si>
+    <t>jujumachado408@gmail.com</t>
+  </si>
+  <si>
+    <t>juliacardoso0509@gmail.com</t>
+  </si>
+  <si>
+    <t>faeisadora@gmail.com</t>
+  </si>
+  <si>
+    <t>isabela.e.almeida75@gmail.com</t>
+  </si>
+  <si>
+    <t>gilbertomathielo@gmail.com</t>
+  </si>
+  <si>
+    <t>gabriellacostamachado@gmail.com</t>
+  </si>
+  <si>
+    <t>gabrielsilvahso@hotmail.com</t>
+  </si>
+  <si>
+    <t>felipenanet2011@gmail.com</t>
+  </si>
+  <si>
+    <t>felipe.belem@hotmail.com</t>
+  </si>
+  <si>
+    <t>elisandra200898@hotmail.com</t>
+  </si>
+  <si>
+    <t>eliezerfelicio9@gmail.com</t>
+  </si>
+  <si>
+    <t>dijanprof@gmail.com</t>
+  </si>
+  <si>
+    <t>nielfonseca1@hotmail.com</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Rodrigues Ferreira do Couto</t>
+  </si>
+  <si>
+    <t>Brayan de Jesus Silva</t>
+  </si>
+  <si>
+    <t>Andyara Cristyen</t>
+  </si>
+  <si>
+    <t>ayslasipolati@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bruna Santos</t>
+  </si>
+  <si>
+    <t>Felipe Kapitzky</t>
+  </si>
+  <si>
+    <t>Gilberto Mathielo</t>
+  </si>
+  <si>
+    <t>Isabela Eduvirges Almeida</t>
+  </si>
+  <si>
+    <t>Isadora Faé</t>
+  </si>
+  <si>
+    <t>Lucas Freitas da Silva</t>
+  </si>
+  <si>
+    <t>Luisa Gil e Silva</t>
+  </si>
+  <si>
+    <t>Luiz Carlos Santos de Jesus</t>
+  </si>
+  <si>
+    <t>Andrey Nonato Cantão</t>
+  </si>
+  <si>
+    <t>Paulo Giovani Moreira da Cunha</t>
+  </si>
+  <si>
+    <t>Gabriella Costa</t>
+  </si>
+  <si>
+    <t>Dijan Souza da Natividade</t>
+  </si>
+  <si>
+    <t>Daniel Ribeiro da Fonseca</t>
+  </si>
+  <si>
+    <t>Aysla Sipolati</t>
+  </si>
+  <si>
+    <t>Luiz Gustavo De Sousa Cypreste</t>
+  </si>
+  <si>
+    <t>Maria Paula Moreira da Cunha</t>
+  </si>
+  <si>
+    <t>Caio Mazolini</t>
+  </si>
+  <si>
+    <t>Camila Vieira</t>
+  </si>
+  <si>
+    <t>Elisandra Eler Machado</t>
+  </si>
+  <si>
+    <t>Felipe Vieira</t>
+  </si>
+  <si>
+    <t>Lucas Lima</t>
+  </si>
+  <si>
+    <t>Lucas Carvalho</t>
+  </si>
+  <si>
+    <t>Nicoli Bessert Dutra</t>
+  </si>
+  <si>
+    <t>Matheus Motta</t>
+  </si>
+  <si>
+    <t>Marcelly Borges</t>
+  </si>
+  <si>
+    <t>Julia Cardoso</t>
+  </si>
+  <si>
+    <t>Eliezer Felicio</t>
+  </si>
+  <si>
+    <t>Rochelly Hoffmann</t>
+  </si>
+  <si>
+    <t>Sarah Esther Santos de Oliveira</t>
+  </si>
+  <si>
+    <t>Rodrigo Andrade de Castro</t>
+  </si>
+  <si>
+    <t>Gabriel Pereira Silva</t>
+  </si>
+  <si>
+    <t>Julia Machado</t>
+  </si>
   <si>
     <t>nome</t>
   </si>
   <si>
-    <t>Alberson da Silva Miranda</t>
-  </si>
-  <si>
-    <t>Ariella Lopes Matias</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>prova</t>
+  </si>
+  <si>
+    <t>fase1</t>
+  </si>
+  <si>
+    <t>fase2</t>
+  </si>
+  <si>
+    <t>fase3</t>
+  </si>
+  <si>
+    <t>Patriki Chagas</t>
+  </si>
+  <si>
+    <t>Liandra Bandeira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,17 +370,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -88,39 +414,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,195 +525,857 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>